--- a/biology/Botanique/Cymbidium_striatum/Cymbidium_striatum.xlsx
+++ b/biology/Botanique/Cymbidium_striatum/Cymbidium_striatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bletilla striata
 L'Orchidée jacinthe (Bletilla striata) est une espèce de plantes à fleurs du genre Bletilla et de la famille des Orchidacées (les orchidées). C'est une plante herbacée terrestre avec un rhizome (géophyte).
@@ -518,12 +530,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bletilla striata (Thunb.) Rchb.f.[1].
-L'espèce a été initialement classée dans le genre Limodorum sous le basionyme Limodorum striatum Thunb.[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Baiji[2].
-Bletilla striata a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bletilla striata (Thunb.) Rchb.f..
+L'espèce a été initialement classée dans le genre Limodorum sous le basionyme Limodorum striatum Thunb..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Baiji.
+Bletilla striata a pour synonymes :
 Bletia gebina Lindl.
 Bletia hyacinthina var. gebina (Lindl.) Blume
 Bletia hyacinthina var. liukiuensis S.Sakag.
@@ -577,9 +591,11 @@
           <t>Bon à savoir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La sève de ces orchidées est utilisée pour fabriquer les émaux cloisonnés en Extrême-Orient car elle ne fait pas de cendres lorsqu'elle se consume[3],[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La sève de ces orchidées est utilisée pour fabriquer les émaux cloisonnés en Extrême-Orient car elle ne fait pas de cendres lorsqu'elle se consume,.</t>
         </is>
       </c>
     </row>
